--- a/documentation/Новостная лента.xlsx
+++ b/documentation/Новостная лента.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C32EFB6-E416-4914-8981-9FE7F914077B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6DD1A5-75F0-468B-B46F-FEBE6A015BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{87AE408A-3145-4D3A-8E57-E9455BEE2758}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="84">
   <si>
     <t>Событие</t>
   </si>
@@ -261,7 +261,31 @@
     <t>При формировании новой пары</t>
   </si>
   <si>
-    <t>Прошлым днем *Имя* и *Имя* нашли общий язык и вступили в отношения друг с другом. Мы уважаем из решение.</t>
+    <t>Вызов полиции</t>
+  </si>
+  <si>
+    <t>При вызове полиции по телефону</t>
+  </si>
+  <si>
+    <t>Полиция получила ваш звонок и уже направляется к вам.</t>
+  </si>
+  <si>
+    <t>Вызов скорой</t>
+  </si>
+  <si>
+    <t>При вызове скорой по телефону</t>
+  </si>
+  <si>
+    <t>Врачи в дороге. Они будут уже совсем скоро.</t>
+  </si>
+  <si>
+    <t>Вызов похоронного бюро</t>
+  </si>
+  <si>
+    <t>При вызове похоронного бюро по телефону</t>
+  </si>
+  <si>
+    <t>Прошлым днем *Имя* и *Имя* нашли общий язык и вступили в отношения друг с другом. Мы уважаем их решение.</t>
   </si>
 </sst>
 </file>
@@ -626,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46721E57-935E-49CD-B002-45C22C12BE02}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -990,7 +1014,46 @@
         <v>37</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>75</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
